--- a/Testing/Testing_PIGrupo4.xlsx
+++ b/Testing/Testing_PIGrupo4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lm/Desktop/PIGrupo4/grupo-04/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07533CEA-AE41-D04A-9A00-87382F3A2DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476A0037-FAC4-114A-A301-D5E9BDE61B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t xml:space="preserve">Issue </t>
   </si>
@@ -300,13 +300,16 @@
   </si>
   <si>
     <t>Se visualiza el botón de registro al final del formulario</t>
+  </si>
+  <si>
+    <t>Abierto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -318,27 +321,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -379,11 +387,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -621,13 +624,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,52 +644,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -704,11 +676,56 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -716,149 +733,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,15 +920,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>16933</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>93133</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>321733</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>93133</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -936,7 +938,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA926A1-0266-6111-3965-247E0EF08C9C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -985,15 +987,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>8467</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>97368</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>313267</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>97367</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1003,7 +1005,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B40926-D33C-FE44-426D-005C99A155D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1052,15 +1054,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>8467</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>105833</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>313267</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>105834</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1070,7 +1072,7 @@
                   <a14:compatExt spid="_x0000_s3080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BD8C31-D63F-BAE4-AB85-6194C5816179}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000080C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1119,15 +1121,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>8467</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>105833</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>313267</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>105833</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1137,7 +1139,7 @@
                   <a14:compatExt spid="_x0000_s3081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DFCB37-866F-075D-F653-7F1BD1C640B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000090C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1186,15 +1188,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>8467</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>105834</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>313267</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>105833</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1204,7 +1206,7 @@
                   <a14:compatExt spid="_x0000_s3082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EDB612-E185-C348-FFEB-46043055EFC7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1253,15 +1255,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>8466</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>105833</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>313266</xdr:colOff>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>105834</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1271,7 +1273,7 @@
                   <a14:compatExt spid="_x0000_s3083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004246A-B309-B3EB-2026-D6982F3041E0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B0C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1521,8 +1523,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1542,28 +1544,32 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E4" s="14"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E5" s="15"/>
+      <c r="E5" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1591,105 +1597,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="43" t="b">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="43" t="b">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="43" t="b">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="43" t="b">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="43" t="b">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="43" t="b">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1854,7 +1860,7 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1872,626 +1878,627 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="80" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="37">
         <v>1</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="64" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="87">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="37">
         <v>2</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="18"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="87">
+      <c r="A5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="37">
         <v>3</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="38">
         <v>1</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="38">
         <v>1</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="73" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="72"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="88">
+      <c r="A8" s="67"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="38">
         <v>2</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="72"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="88">
+      <c r="A9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="38">
         <v>3</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="88">
+      <c r="A10" s="79"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="38">
         <v>4</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="88">
+      <c r="D11" s="85"/>
+      <c r="E11" s="38">
         <v>1</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="73" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="72"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="88">
+      <c r="A12" s="67"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="38">
         <v>2</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
     </row>
     <row r="13" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="84">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="85">
         <v>3</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60" t="s">
+      <c r="H15" s="46"/>
+      <c r="I15" s="46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="72"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="88">
+      <c r="A16" s="67"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="38">
         <v>2</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="61"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="89">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="39">
         <v>3</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="G17" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="64"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="40">
         <v>1</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="18" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="64" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="75"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="91">
+      <c r="A19" s="71"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="41">
         <v>2</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="65"/>
-      <c r="I19" s="20"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="75"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="75"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="15">
         <v>4</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="65"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="75"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="25">
+      <c r="A22" s="71"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="15">
         <v>5</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="20"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="75"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="15">
         <v>6</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="15">
         <v>7</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="65"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="15">
         <v>8</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="65"/>
-      <c r="I25" s="20"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="21"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
+      <c r="A27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
+      <c r="A28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
+      <c r="A29" s="34"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
+      <c r="A30" s="34"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
+      <c r="A31" s="34"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
+      <c r="A32" s="34"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
+      <c r="A33" s="34"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
+      <c r="A34" s="34"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="78"/>
+      <c r="A35" s="34"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
+      <c r="A36" s="34"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="78"/>
+      <c r="A37" s="34"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="78"/>
+      <c r="A38" s="34"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
+      <c r="A39" s="34"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
+      <c r="A40" s="35"/>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="79"/>
+      <c r="A41" s="35"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="79"/>
+      <c r="A42" s="35"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="79"/>
+      <c r="A43" s="35"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="79"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="79"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="79"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="79"/>
+      <c r="A47" s="35"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
+      <c r="A48" s="35"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="79"/>
+      <c r="A49" s="35"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="79"/>
+      <c r="A50" s="35"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="79"/>
+      <c r="A51" s="35"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
+      <c r="A52" s="35"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="79"/>
+      <c r="A53" s="35"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="79"/>
+      <c r="A54" s="35"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="79"/>
+      <c r="A55" s="35"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="79"/>
+      <c r="A56" s="35"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="79"/>
+      <c r="A57" s="35"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="79"/>
+      <c r="A58" s="35"/>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="79"/>
+      <c r="A59" s="35"/>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="79"/>
+      <c r="A60" s="35"/>
     </row>
     <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="79"/>
+      <c r="A61" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I18:I25"/>
@@ -2507,21 +2514,20 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="C18:C25"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H7 H11 H15">
     <cfRule type="notContainsBlanks" dxfId="0" priority="6">
@@ -2585,464 +2591,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="35" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3065,7 +3071,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3076,18 +3082,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
